--- a/mentor.xlsx
+++ b/mentor.xlsx
@@ -83,55 +83,55 @@
     <t>Номер</t>
   </si>
   <si>
-    <t>8 700 165 15 16</t>
-  </si>
-  <si>
-    <t>8 700 373 71 73</t>
-  </si>
-  <si>
-    <t>8 700 552 29 79</t>
-  </si>
-  <si>
-    <t>8 700 651 67 39</t>
-  </si>
-  <si>
-    <t>8 700 755 50 42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 708 801 50 20 </t>
-  </si>
-  <si>
-    <t>8 707 592 00 93</t>
-  </si>
-  <si>
-    <t>8 708 668 90 83</t>
-  </si>
-  <si>
-    <t>8 708 668 90 86</t>
-  </si>
-  <si>
-    <t>8 700 308 88 34</t>
-  </si>
-  <si>
-    <t>8 771 467 80 30</t>
-  </si>
-  <si>
-    <t>8 700 354 44 75</t>
-  </si>
-  <si>
-    <t>8 708 772 31 30</t>
-  </si>
-  <si>
-    <t>8 700 972 82 53</t>
-  </si>
-  <si>
-    <t>8 747 107 45 51</t>
-  </si>
-  <si>
-    <t>8 707 145 45 70</t>
-  </si>
-  <si>
-    <t>8 700 755 79 52</t>
+    <t>+77001651516</t>
+  </si>
+  <si>
+    <t>+77003737173</t>
+  </si>
+  <si>
+    <t>+77007557952</t>
+  </si>
+  <si>
+    <t>+77005522979</t>
+  </si>
+  <si>
+    <t>+77006516739</t>
+  </si>
+  <si>
+    <t>+77007555042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+77088015020 </t>
+  </si>
+  <si>
+    <t>+77071454570</t>
+  </si>
+  <si>
+    <t>+77075920093</t>
+  </si>
+  <si>
+    <t>+77086689083</t>
+  </si>
+  <si>
+    <t>+77086689086</t>
+  </si>
+  <si>
+    <t>+77003088834</t>
+  </si>
+  <si>
+    <t>+77714678030</t>
+  </si>
+  <si>
+    <t>+77003544475</t>
+  </si>
+  <si>
+    <t>+77087723130</t>
+  </si>
+  <si>
+    <t>+77009728253</t>
+  </si>
+  <si>
+    <t>+77471074551</t>
   </si>
 </sst>
 </file>
@@ -167,11 +167,15 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -220,15 +224,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -512,20 +517,20 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -533,7 +538,7 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -541,7 +546,7 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -549,120 +554,120 @@
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>35</v>
+      <c r="B4" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>21</v>
+      <c r="B5" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>22</v>
+      <c r="B6" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>23</v>
+      <c r="B7" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>24</v>
+      <c r="B8" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>34</v>
+      <c r="B9" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>25</v>
+      <c r="B10" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>26</v>
+      <c r="B11" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>27</v>
+      <c r="B12" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>28</v>
+      <c r="B13" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>29</v>
+      <c r="B14" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>30</v>
+      <c r="B15" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>31</v>
+      <c r="B16" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>32</v>
+      <c r="B17" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>33</v>
+      <c r="B18" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
